--- a/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/娱乐教育文化用品及服务类居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/娱乐教育文化用品及服务类居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,576 +488,212 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.6</v>
+        <v>100.60043</v>
       </c>
       <c r="C2" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>100.62341</v>
+      </c>
+      <c r="D2" t="n">
+        <v>101.3</v>
+      </c>
       <c r="E2" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>102.62949</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101.40094</v>
+      </c>
       <c r="G2" t="n">
-        <v>99.5</v>
+        <v>99.65366</v>
       </c>
       <c r="H2" t="n">
-        <v>101.7</v>
+        <v>100.97955</v>
       </c>
       <c r="I2" t="n">
-        <v>92</v>
+        <v>94.30937</v>
       </c>
       <c r="J2" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>102.28458</v>
+      </c>
+      <c r="K2" t="n">
+        <v>104.91475</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.9367</v>
+        <v>100.95878155</v>
       </c>
       <c r="C3" t="n">
-        <v>106.6157</v>
-      </c>
-      <c r="D3" t="n">
-        <v>114.1</v>
-      </c>
+        <v>100.37424523</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>106.107</v>
+        <v>101.14081277</v>
       </c>
       <c r="F3" t="n">
-        <v>113.628</v>
+        <v>101.32984727</v>
       </c>
       <c r="G3" t="n">
-        <v>99.3938</v>
+        <v>100.58744786</v>
       </c>
       <c r="H3" t="n">
-        <v>101.7387</v>
+        <v>101.07827907</v>
       </c>
       <c r="I3" t="n">
-        <v>91.16759999999999</v>
+        <v>93.65643999</v>
       </c>
       <c r="J3" t="n">
-        <v>104.4181</v>
+        <v>101.47460562</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3192</v>
+        <v>103.84863467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.953</v>
+        <v>101.37996755</v>
       </c>
       <c r="C4" t="n">
-        <v>100.6144</v>
-      </c>
-      <c r="D4" t="n">
-        <v>104</v>
-      </c>
+        <v>100.51223885</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>98.9653</v>
+        <v>101.70924815</v>
       </c>
       <c r="F4" t="n">
-        <v>103.6833</v>
+        <v>101.71979369</v>
       </c>
       <c r="G4" t="n">
-        <v>98.8728</v>
+        <v>100.38462903</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2402</v>
+        <v>101.2775757</v>
       </c>
       <c r="I4" t="n">
-        <v>90.4605</v>
+        <v>94.47902408</v>
       </c>
       <c r="J4" t="n">
-        <v>104.1901</v>
+        <v>101.86697029</v>
       </c>
       <c r="K4" t="n">
-        <v>95.9391</v>
+        <v>101.70960844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.4413</v>
+        <v>101.04293431</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3259</v>
-      </c>
-      <c r="D5" t="n">
-        <v>104.5</v>
-      </c>
+        <v>101.8</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>101.7276</v>
+        <v>102.31748724</v>
       </c>
       <c r="F5" t="n">
-        <v>104.3342</v>
+        <v>102.7</v>
       </c>
       <c r="G5" t="n">
-        <v>98.706</v>
+        <v>100.17681128</v>
       </c>
       <c r="H5" t="n">
-        <v>101.2578</v>
+        <v>101.4</v>
       </c>
       <c r="I5" t="n">
-        <v>92.67100000000001</v>
+        <v>96.3</v>
       </c>
       <c r="J5" t="n">
-        <v>104.6434</v>
+        <v>102.38107936</v>
       </c>
       <c r="K5" t="n">
-        <v>95.41670000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5645</v>
+        <v>101.59633137</v>
       </c>
       <c r="C6" t="n">
-        <v>101.2901</v>
-      </c>
-      <c r="D6" t="n">
-        <v>103.4</v>
-      </c>
+        <v>101.9</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>102.813</v>
+        <v>101.31696101</v>
       </c>
       <c r="F6" t="n">
-        <v>103.3965</v>
+        <v>102.4</v>
       </c>
       <c r="G6" t="n">
-        <v>99.39190000000001</v>
+        <v>100.28191875</v>
       </c>
       <c r="H6" t="n">
-        <v>101.0603</v>
+        <v>101.3</v>
       </c>
       <c r="I6" t="n">
-        <v>93.3416</v>
+        <v>97.3</v>
       </c>
       <c r="J6" t="n">
-        <v>103.2423</v>
+        <v>101.79440854</v>
       </c>
       <c r="K6" t="n">
-        <v>100.6475</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.7585</v>
+        <v>105.35299</v>
       </c>
       <c r="C7" t="n">
-        <v>102.2152</v>
-      </c>
-      <c r="D7" t="n">
-        <v>105.4</v>
-      </c>
+        <v>101.44223</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>100.8778</v>
+        <v>101.15864</v>
       </c>
       <c r="F7" t="n">
-        <v>105.0653</v>
+        <v>102.65015</v>
       </c>
       <c r="G7" t="n">
-        <v>99.8151</v>
+        <v>100.32433</v>
       </c>
       <c r="H7" t="n">
-        <v>101.16</v>
+        <v>101.76771</v>
       </c>
       <c r="I7" t="n">
-        <v>93.83799999999999</v>
+        <v>98.51665</v>
       </c>
       <c r="J7" t="n">
-        <v>102.8714</v>
+        <v>101.35374</v>
       </c>
       <c r="K7" t="n">
-        <v>99.5676</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100.70358</v>
-      </c>
-      <c r="C8" t="n">
-        <v>99.52206</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100.26601</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.02452</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.60905</v>
-      </c>
-      <c r="H8" t="n">
-        <v>101.03848</v>
-      </c>
-      <c r="I8" t="n">
-        <v>94.18446</v>
-      </c>
-      <c r="J8" t="n">
-        <v>102.59437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>103.09413</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.69317</v>
-      </c>
-      <c r="C9" t="n">
-        <v>99.01663000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>99.06944</v>
-      </c>
-      <c r="F9" t="n">
-        <v>99.56493</v>
-      </c>
-      <c r="G9" t="n">
-        <v>99.48236</v>
-      </c>
-      <c r="H9" t="n">
-        <v>101.03278</v>
-      </c>
-      <c r="I9" t="n">
-        <v>93.06225000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>102.6619</v>
-      </c>
-      <c r="K9" t="n">
-        <v>102.33134</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>102.09888</v>
-      </c>
-      <c r="C10" t="n">
-        <v>99.33147</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100.61142</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100.53497</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99.87815999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>101.29532</v>
-      </c>
-      <c r="I10" t="n">
-        <v>92.28782</v>
-      </c>
-      <c r="J10" t="n">
-        <v>102.08463</v>
-      </c>
-      <c r="K10" t="n">
-        <v>101.05437</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>107.61039</v>
-      </c>
-      <c r="C11" t="n">
-        <v>99.3429</v>
-      </c>
-      <c r="D11" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>102.91285</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101.56977</v>
-      </c>
-      <c r="G11" t="n">
-        <v>99.84156</v>
-      </c>
-      <c r="H11" t="n">
-        <v>102.54598</v>
-      </c>
-      <c r="I11" t="n">
-        <v>90.58293</v>
-      </c>
-      <c r="J11" t="n">
-        <v>102.11114</v>
-      </c>
-      <c r="K11" t="n">
-        <v>97.50776</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.60043</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100.62341</v>
-      </c>
-      <c r="D12" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>102.62949</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.40094</v>
-      </c>
-      <c r="G12" t="n">
-        <v>99.65366</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100.97955</v>
-      </c>
-      <c r="I12" t="n">
-        <v>94.30937</v>
-      </c>
-      <c r="J12" t="n">
-        <v>102.28458</v>
-      </c>
-      <c r="K12" t="n">
-        <v>104.91475</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.95878155</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100.37424523</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>101.14081277</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.32984727</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100.58744786</v>
-      </c>
-      <c r="H13" t="n">
-        <v>101.07827907</v>
-      </c>
-      <c r="I13" t="n">
-        <v>93.65643999</v>
-      </c>
-      <c r="J13" t="n">
-        <v>101.47460562</v>
-      </c>
-      <c r="K13" t="n">
-        <v>103.84863467</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>101.37996755</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100.51223885</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>101.70924815</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.71979369</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100.38462903</v>
-      </c>
-      <c r="H14" t="n">
-        <v>101.2775757</v>
-      </c>
-      <c r="I14" t="n">
-        <v>94.47902408</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.86697029</v>
-      </c>
-      <c r="K14" t="n">
-        <v>101.70960844</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>101.04293431</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>102.31748724</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100.17681128</v>
-      </c>
-      <c r="H15" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>102.38107936</v>
-      </c>
-      <c r="K15" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>101.59633137</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>101.31696101</v>
-      </c>
-      <c r="F16" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.28191875</v>
-      </c>
-      <c r="H16" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.79440854</v>
-      </c>
-      <c r="K16" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>105.35299</v>
-      </c>
-      <c r="C17" t="n">
-        <v>101.44223</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>101.15864</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102.65015</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100.32433</v>
-      </c>
-      <c r="H17" t="n">
-        <v>101.76771</v>
-      </c>
-      <c r="I17" t="n">
-        <v>98.51665</v>
-      </c>
-      <c r="J17" t="n">
-        <v>101.35374</v>
-      </c>
-      <c r="K17" t="n">
         <v>99.52127</v>
       </c>
     </row>
